--- a/word/Table1.xlsx
+++ b/word/Table1.xlsx
@@ -212,7 +212,7 @@
   </si>
   <si>
     <r>
-      <t>NO</t>
+      <t>PO</t>
     </r>
     <r>
       <rPr>
@@ -223,7 +223,18 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -237,31 +248,15 @@
       </rPr>
       <t>−</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/NO</t>
+  </si>
+  <si>
+    <r>
+      <t>NO</t>
     </r>
     <r>
       <rPr>
         <b/>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
@@ -281,26 +276,20 @@
       </rPr>
       <t>−</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>PO</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/NO</t>
     </r>
     <r>
       <rPr>
         <b/>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
@@ -483,21 +472,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +805,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -825,39 +814,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
@@ -866,36 +855,36 @@
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>10.82</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
         <v>6.69</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
         <v>13.76</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
         <v>0.69</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="3">
         <v>47.67</v>
       </c>
@@ -904,22 +893,22 @@
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>8.25</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
         <v>5.43</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
         <v>9.44</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
         <v>0.46</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="3">
         <v>41.98</v>
       </c>
@@ -928,22 +917,22 @@
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>7.94</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
         <v>5.01</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
         <v>9.7899999999999991</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="3">
         <v>36.71</v>
       </c>
@@ -952,22 +941,22 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>7.98</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
         <v>5.17</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
         <v>9.39</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
         <v>0.52</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="4">
         <v>33.950000000000003</v>
       </c>
@@ -976,36 +965,36 @@
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>80.12</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
         <v>19.11</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>1.8</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="3">
         <v>221.9</v>
       </c>
@@ -1014,22 +1003,22 @@
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>92.05</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
         <v>93.1</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <v>16.260000000000002</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>8.6</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="3">
         <v>297.7</v>
       </c>
@@ -1038,22 +1027,22 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>97.08</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
         <v>97.9</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
         <v>15.52</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
         <v>8.4</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="4">
         <v>221.9</v>
       </c>
@@ -1062,36 +1051,36 @@
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>0.04</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
         <v>0.08</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I13" s="12"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="9"/>
       <c r="J13" s="3">
         <v>0.21</v>
       </c>
@@ -1100,22 +1089,22 @@
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>0.02</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
         <v>0.06</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I14" s="12"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="9"/>
       <c r="J14" s="3">
         <v>0.18</v>
       </c>
@@ -1124,22 +1113,22 @@
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>0.03</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I15" s="12"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I15" s="9"/>
       <c r="J15" s="3">
         <v>0.16</v>
       </c>
@@ -1148,60 +1137,60 @@
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>0.02</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
         <v>0.06</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="I16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="8"/>
       <c r="J16" s="4">
         <v>0.42</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="A17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
+      <c r="B18" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
         <v>0.02</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I18" s="12"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I18" s="9"/>
       <c r="J18" s="3">
         <v>0.09</v>
       </c>
@@ -1210,22 +1199,22 @@
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12">
+      <c r="B19" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
         <v>0.03</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I19" s="12"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I19" s="9"/>
       <c r="J19" s="3">
         <v>0.09</v>
       </c>
@@ -1234,22 +1223,22 @@
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12">
+      <c r="B20" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
         <v>0.02</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I20" s="12"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="9"/>
       <c r="J20" s="3">
         <v>0.1</v>
       </c>
@@ -1258,22 +1247,22 @@
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9">
+      <c r="B21" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8">
         <v>0.04</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="8"/>
       <c r="J21" s="4">
         <v>0.1</v>
       </c>
@@ -1282,36 +1271,36 @@
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>7.26</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9">
         <v>7.3</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9">
         <v>0.46</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="3">
         <v>9</v>
       </c>
@@ -1320,22 +1309,22 @@
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>7.75</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9">
         <v>7.7</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
         <v>0.37</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9">
         <v>3.7</v>
       </c>
-      <c r="I24" s="12"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="3">
         <v>9.6</v>
       </c>
@@ -1344,60 +1333,60 @@
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>8.06</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8">
         <v>8.1</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8">
         <v>0.22</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8">
         <v>7</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12">
+      <c r="B27" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
         <v>0.03</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I27" s="12"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I27" s="9"/>
       <c r="J27" s="3">
         <v>0.43</v>
       </c>
@@ -1406,22 +1395,22 @@
       <c r="A28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>0.09</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
         <v>2.13</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I28" s="12"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="9"/>
       <c r="J28" s="3">
         <v>4.29</v>
       </c>
@@ -1430,22 +1419,22 @@
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>0.12</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9">
         <v>0.02</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
         <v>0.9</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I29" s="12"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="9"/>
       <c r="J29" s="3">
         <v>1.29</v>
       </c>
@@ -1454,22 +1443,22 @@
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9">
+      <c r="B30" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
         <v>0</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8">
         <v>0.02</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="I30" s="9"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="I30" s="8"/>
       <c r="J30" s="4">
         <v>0.16</v>
       </c>
@@ -1478,36 +1467,36 @@
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="9">
         <v>17.22</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9">
         <v>18</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
         <v>7.86</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9">
         <v>0</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="3">
         <v>33.5</v>
       </c>
@@ -1516,22 +1505,22 @@
       <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="9">
         <v>22.02</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9">
         <v>22.4</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
         <v>5.49</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9">
         <v>1.5</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="3">
         <v>32.1</v>
       </c>
@@ -1540,40 +1529,134 @@
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>23.3</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8">
         <v>24.3</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8">
         <v>5.37</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9">
+      <c r="G34" s="8"/>
+      <c r="H34" s="8">
         <v>4.3</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="4">
         <v>33.200000000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
@@ -1590,112 +1673,18 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
